--- a/data/trans_camb/P36B02_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P36B02_R-Edad-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>-0.4674827337091569</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-5.475780384008355</v>
+        <v>-5.475780384008367</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.306432147518183</v>
+        <v>-2.564788735510064</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.138279321236375</v>
+        <v>-2.06230025707166</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-14.57968181917898</v>
+        <v>-14.48309435166347</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.34081414477661</v>
+        <v>-4.585812885814654</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-5.089766563656204</v>
+        <v>-5.181732931984465</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-7.42722665629752</v>
+        <v>-7.740140766673926</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-2.530896796084621</v>
+        <v>-2.285806809024877</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-2.809504911288544</v>
+        <v>-3.019153814488916</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-9.871061927968086</v>
+        <v>-9.661877850245059</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.572985891757489</v>
+        <v>3.331329212956669</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.750425811739491</v>
+        <v>3.849250267276841</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-2.423766278158902</v>
+        <v>-2.811661161998433</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.280173937857218</v>
+        <v>2.432011756163686</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.787776551862536</v>
+        <v>1.545808431676732</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.830217046181047</v>
+        <v>1.456173385435801</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.939584550609494</v>
+        <v>2.037483049511309</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.186288068971888</v>
+        <v>1.721006784750769</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-1.550264347494774</v>
+        <v>-1.750438629774536</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>-0.004987719973036832</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.05842281911159021</v>
+        <v>-0.05842281911159033</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.0242071841867904</v>
+        <v>-0.0270816323604964</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.02209865162611247</v>
+        <v>-0.02181371103308465</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1574214920240305</v>
+        <v>-0.1537056162355672</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.0461445807369284</v>
+        <v>-0.04888252147353473</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.05357263499212289</v>
+        <v>-0.05473537395323747</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.07861832379830525</v>
+        <v>-0.08236665678184309</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.0265951393179476</v>
+        <v>-0.02408297802888971</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.02967641665081554</v>
+        <v>-0.03210525249580037</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.1048038843136141</v>
+        <v>-0.101894381713295</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.03850371298116443</v>
+        <v>0.0358134248150055</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.04041006110963302</v>
+        <v>0.0414489702815489</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.02701001842572342</v>
+        <v>-0.03007830898100168</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.02446711896885961</v>
+        <v>0.0264849158237603</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.01944428574180293</v>
+        <v>0.01695384554971332</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01942256037101531</v>
+        <v>0.01569012618044695</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02073295060684038</v>
+        <v>0.02200050548463672</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.02373922553514816</v>
+        <v>0.01853101133160049</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.0168487937252869</v>
+        <v>-0.01874425090492231</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-4.799644878551657</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-7.264981208497545</v>
+        <v>-7.264981208497534</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-2.657902939519963</v>
@@ -869,7 +869,7 @@
         <v>-0.6375989765857848</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-5.240745224863619</v>
+        <v>-5.240745224863597</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-1.936309045502715</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.056709419871024</v>
+        <v>-4.001043708608075</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-7.750685092167735</v>
+        <v>-8.037235345575841</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-11.9907716179968</v>
+        <v>-11.70962594865862</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-5.8129736046393</v>
+        <v>-6.007048682487119</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-3.140056167378404</v>
+        <v>-3.578429869622262</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-8.971214940317836</v>
+        <v>-8.91401548697252</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-4.027793202779918</v>
+        <v>-3.95200357888217</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-5.058302704194131</v>
+        <v>-4.891902734173844</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-9.068389440649876</v>
+        <v>-8.884947466544823</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.379942162864146</v>
+        <v>1.246274335280988</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-1.901882857568822</v>
+        <v>-1.855207345561332</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-2.853775860420851</v>
+        <v>-3.080641982231548</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3846950883472081</v>
+        <v>0.3362934125294088</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.548197542193978</v>
+        <v>2.192201177034743</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-1.880058858735397</v>
+        <v>-1.864845253518032</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.02183969050977584</v>
+        <v>0.007164384975019762</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-0.954388971073152</v>
+        <v>-0.7269304161275393</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-3.949878426793105</v>
+        <v>-3.375321480968392</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.05094424398725227</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.07711174151704867</v>
+        <v>-0.07711174151704855</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.02815797271776051</v>
@@ -974,7 +974,7 @@
         <v>-0.006754759295618629</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.05552074865799857</v>
+        <v>-0.05552074865799834</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.0205343832704027</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.04272138570175953</v>
+        <v>-0.04198550113866309</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.08192234177208509</v>
+        <v>-0.08467631236173059</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1289762734446894</v>
+        <v>-0.1234583118327981</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.06068690325217118</v>
+        <v>-0.06290553718539481</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.03294813883130068</v>
+        <v>-0.03728396200957624</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.09543093158016071</v>
+        <v>-0.09311367452574321</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.04211622501399152</v>
+        <v>-0.04169536875391185</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.05304051356267919</v>
+        <v>-0.05083764311293155</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.09604956583149246</v>
+        <v>-0.09353742921474779</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.01484718177205495</v>
+        <v>0.01331474223194518</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.02042658236867747</v>
+        <v>-0.01971381756691189</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.03268197755291407</v>
+        <v>-0.03301696887318413</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.003898303365432895</v>
+        <v>0.003522974547685948</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.02729172062195132</v>
+        <v>0.02361242538331062</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.0202002341330609</v>
+        <v>-0.02000861938657056</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.0003003628333351111</v>
+        <v>-0.0001145977254209961</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.01018308271315635</v>
+        <v>-0.00770410434457147</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.04197453874833894</v>
+        <v>-0.03576819776535532</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.012574336391282</v>
+        <v>-1.11074152757597</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-4.498595238386114</v>
+        <v>-4.440100897698801</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-7.691770544630451</v>
+        <v>-7.740954740446404</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.475820197440661</v>
+        <v>-2.803318919933325</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.874434258032929</v>
+        <v>-2.717834708443197</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-10.17363259724886</v>
+        <v>-10.06088775176301</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.274581240278801</v>
+        <v>-1.335065871299632</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.837447031715785</v>
+        <v>-2.911646245510461</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-8.006673750941998</v>
+        <v>-7.84639403272873</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.985216376463582</v>
+        <v>4.690046255716179</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.95826064171851</v>
+        <v>2.376737312385653</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-0.6808046752156894</v>
+        <v>-0.578634650608256</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.698661440274698</v>
+        <v>2.132134832575598</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.162880074949868</v>
+        <v>1.840199407414654</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-4.139652424560315</v>
+        <v>-4.094211344174173</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.484415944089809</v>
+        <v>2.5075381869059</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.147801776308187</v>
+        <v>1.252778155093994</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-3.212756557911679</v>
+        <v>-3.456581556148436</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.01060625702992975</v>
+        <v>-0.01196705626104008</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.04850547612807584</v>
+        <v>-0.04798411219645644</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.08288069799688705</v>
+        <v>-0.08320340021675823</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.03637190766111853</v>
+        <v>-0.02922522421163227</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.02995171204581099</v>
+        <v>-0.02839291350800904</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1063319901609012</v>
+        <v>-0.1057145086680226</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.01354368403478109</v>
+        <v>-0.0141396771676522</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.03023392250714169</v>
+        <v>-0.03081405907674998</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.08534944699526519</v>
+        <v>-0.08385608726197437</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.05519701033350689</v>
+        <v>0.05231758787494915</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.02179698987376325</v>
+        <v>0.02578956607496559</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.006699366445648892</v>
+        <v>-0.006387803581554117</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.01825549847061069</v>
+        <v>0.02297208572670059</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.02314046051841322</v>
+        <v>0.01956968213174301</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.04408303522940216</v>
+        <v>-0.04466663159142042</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.0269356373113921</v>
+        <v>0.02742338771579153</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.01233981215138473</v>
+        <v>0.01354982868284573</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.03539082652331495</v>
+        <v>-0.03751444586702953</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-1.891555844919179</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-4.14948234340855</v>
+        <v>-4.149482343408573</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-0.5042725793989677</v>
@@ -1306,7 +1306,7 @@
         <v>-1.679346186234476</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-4.692382868374379</v>
+        <v>-4.692382868374367</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.19992525574275</v>
+        <v>-2.601231814607199</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-5.720186386563229</v>
+        <v>-5.447992059977461</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-7.740341917497662</v>
+        <v>-7.943770908641426</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-3.395430043702047</v>
+        <v>-3.168099227035589</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-4.214933222586213</v>
+        <v>-4.436962987438266</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-7.978608904292514</v>
+        <v>-7.981648561087903</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-2.022817620380567</v>
+        <v>-2.100560869938789</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-4.03606889000185</v>
+        <v>-4.08544166557629</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-6.794095274847633</v>
+        <v>-6.919076292254323</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.236711059416511</v>
+        <v>4.737743130445871</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.690608013939532</v>
+        <v>1.840413961740363</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-0.4974674158247538</v>
+        <v>-0.2117229298761646</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.150910678547175</v>
+        <v>2.189802085129803</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.466205977790726</v>
+        <v>1.306615101700816</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-2.452231134603247</v>
+        <v>-2.777557529292202</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.498193952845244</v>
+        <v>2.504758395190103</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.501887150842906</v>
+        <v>0.7125424628979483</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-2.387322997951947</v>
+        <v>-2.502873074539294</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.02067326300689437</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.04535067788676078</v>
+        <v>-0.04535067788676102</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.005345694386904299</v>
@@ -1411,7 +1411,7 @@
         <v>-0.01807492291014634</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.05050445185511986</v>
+        <v>-0.05050445185511974</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.03389042374936507</v>
+        <v>-0.02784496090690304</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.06094881758967709</v>
+        <v>-0.05830496978359011</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.08336070443519042</v>
+        <v>-0.08424767461144352</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.03508389423744408</v>
+        <v>-0.03336995851811996</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.04417843100980207</v>
+        <v>-0.04630338753865365</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.08301313435365204</v>
+        <v>-0.08354242734912724</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.02145292540412205</v>
+        <v>-0.02229663097851018</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.04324534430775703</v>
+        <v>-0.04335277198263873</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.07248075056156053</v>
+        <v>-0.07391407036689132</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.04740755671807258</v>
+        <v>0.0529661032115206</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.01897329404612363</v>
+        <v>0.02068279143605692</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.005773924328823919</v>
+        <v>-0.001589628854770126</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.0236159706819512</v>
+        <v>0.02354913437269905</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.0157300661430941</v>
+        <v>0.01408865264346032</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.02589741718556261</v>
+        <v>-0.02977082754600926</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.02721295413515852</v>
+        <v>0.02712273073656405</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.005479836135189142</v>
+        <v>0.007765924414203995</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.02604300794894493</v>
+        <v>-0.02729775261559221</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>1.718000690707466</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-5.041594814882511</v>
+        <v>-5.041594814882499</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>1.231326529081145</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-5.35742012871874</v>
+        <v>-4.851030141142471</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-3.703023434798362</v>
+        <v>-3.795290772050707</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-10.55713163165318</v>
+        <v>-11.11580921509259</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.2952699938588481</v>
+        <v>0.1192162294440603</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.705049042950526</v>
+        <v>-1.721729742672716</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-8.35820899875227</v>
+        <v>-8.491401728460348</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-1.274679460158161</v>
+        <v>-1.254926324026424</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-1.778334130982186</v>
+        <v>-1.491749762083693</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-8.246396283802056</v>
+        <v>-8.369323112042396</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.723202572705794</v>
+        <v>2.77660772662801</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.941845434432755</v>
+        <v>3.675494176520611</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-3.044612657719705</v>
+        <v>-2.842346946375269</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>6.831227265690646</v>
+        <v>6.751197524116526</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>5.375591134522004</v>
+        <v>5.192433173508837</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-1.929573764098388</v>
+        <v>-1.514561265405118</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>3.638432436934283</v>
+        <v>3.600818616543541</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>3.532782647514442</v>
+        <v>3.526760527914472</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-3.299639519278214</v>
+        <v>-3.33937248337725</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.01862152500596525</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.05464618519834186</v>
+        <v>-0.05464618519834174</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.01336046879962181</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.05637308856232633</v>
+        <v>-0.05134072021506891</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.0393149553528577</v>
+        <v>-0.03995190569015609</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.1125299249919878</v>
+        <v>-0.1178897942056831</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.003178822611011821</v>
+        <v>0.001470854881279601</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.01780993301520739</v>
+        <v>-0.0183029175710758</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.08849599431711866</v>
+        <v>-0.09097958603210234</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.01366424271563748</v>
+        <v>-0.01343752569428182</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.01901676042180486</v>
+        <v>-0.01600192600299249</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.08853288978496933</v>
+        <v>-0.08976166208862948</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.03024432655937895</v>
+        <v>0.03106844729255742</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.04384336544587737</v>
+        <v>0.04113237847086224</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.03415149054742742</v>
+        <v>-0.03199063427698868</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.07569688537339267</v>
+        <v>0.07517021793077171</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.06007306291664337</v>
+        <v>0.05736493415830438</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.02143887826946371</v>
+        <v>-0.01720268703187246</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.04013992513973913</v>
+        <v>0.03997257128973692</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.03888963197164197</v>
+        <v>0.03901216972669136</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.03641770913068201</v>
+        <v>-0.03700359195043301</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>-0.1764351912594164</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-5.064123720803348</v>
+        <v>-5.064123720803371</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>3.056986527436734</v>
@@ -1734,7 +1734,7 @@
         <v>1.84699211152427</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>-4.46364161916547</v>
+        <v>-4.463641619165449</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-0.02440961614660337</v>
+        <v>-0.09444528178721316</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>0.5294121885587689</v>
+        <v>0.6613700393525584</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-8.019903290330884</v>
+        <v>-7.801093430137914</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-0.08637724795353958</v>
+        <v>-0.2556122259462076</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-3.447257499914094</v>
+        <v>-3.464481092013959</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-7.941838625411296</v>
+        <v>-7.946645745786139</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>0.6377559169581692</v>
+        <v>0.5492000695598087</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-0.5862150619088016</v>
+        <v>-0.5055578436787602</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-6.826450706542081</v>
+        <v>-7.104190650231566</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>8.030349891903295</v>
+        <v>7.677018159583605</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>8.288117355841536</v>
+        <v>7.916717063800006</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>0.6300539493147614</v>
+        <v>0.8523264079412415</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>5.23624841017091</v>
+        <v>5.138050949594624</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>2.601010416591291</v>
+        <v>2.710672035366402</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-1.634270620238586</v>
+        <v>-1.72967199658242</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>5.290807899197639</v>
+        <v>5.119425876541253</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>4.215118805725542</v>
+        <v>4.121944063030693</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>-1.762075220184012</v>
+        <v>-1.83351237509992</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>-0.001857562423124155</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.05331660800018505</v>
+        <v>-0.05331660800018529</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.03266425180655057</v>
@@ -1839,7 +1839,7 @@
         <v>0.01973532263687409</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>-0.04769452286231492</v>
+        <v>-0.04769452286231469</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.000195286423450846</v>
+        <v>-0.0008954023494504888</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>0.005536368256393604</v>
+        <v>0.007925225647719985</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.08504969369214489</v>
+        <v>-0.08314397973726904</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.0003058996166884075</v>
+        <v>-0.002661860887932636</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.0356652055002505</v>
+        <v>-0.03617892241766303</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.08242954085212544</v>
+        <v>-0.08235495798961687</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.006776959878733775</v>
+        <v>0.005864446220606474</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.006219430722460547</v>
+        <v>-0.005274511553263053</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.07284491606915436</v>
+        <v>-0.07511335884949638</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.09047555657510754</v>
+        <v>0.08627265813687086</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.09273188419483136</v>
+        <v>0.08911459911205973</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.006914588771598645</v>
+        <v>0.009069963971850486</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.05647711440040206</v>
+        <v>0.05546547225923911</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.0277885810678833</v>
+        <v>0.02892142587789286</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.01778367642114504</v>
+        <v>-0.01896506277012278</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.05772699352202322</v>
+        <v>0.05585731395560438</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.04605289183988102</v>
+        <v>0.04488667242388852</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>-0.01937062325077347</v>
+        <v>-0.02004400576705532</v>
       </c>
     </row>
     <row r="40">
@@ -1939,7 +1939,7 @@
         <v>1.231347206226174</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>-6.261128340303513</v>
+        <v>-6.261128340303523</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>-0.9528925875311733</v>
@@ -1948,7 +1948,7 @@
         <v>0.3203713802656383</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>-6.055649238464156</v>
+        <v>-6.055649238464166</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-5.317822753094672</v>
+        <v>-5.64946003871495</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-4.64263539326472</v>
+        <v>-4.718414082711198</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-9.59279283117349</v>
+        <v>-8.981245033217093</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-4.017341711611948</v>
+        <v>-3.865466310084473</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-1.192495790086303</v>
+        <v>-1.130317464765688</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-8.879747769208002</v>
+        <v>-9.247453950774876</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-3.399177739945681</v>
+        <v>-3.304202862696507</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-1.83169589775735</v>
+        <v>-1.900466462926694</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-8.309417587293147</v>
+        <v>-8.364685421244626</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>3.021242839420669</v>
+        <v>3.16496564537343</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>3.406252788884764</v>
+        <v>3.176644645483325</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-1.232417368338291</v>
+        <v>-1.107622731914903</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1.828728233486741</v>
+        <v>2.221725286243535</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>3.575858757855967</v>
+        <v>3.866181587202369</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>-3.242541877422187</v>
+        <v>-3.013826046368078</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>1.479905347197909</v>
+        <v>1.531923273749606</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>2.380320323026617</v>
+        <v>2.773374584469413</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>-3.635845869867843</v>
+        <v>-3.554042151483268</v>
       </c>
     </row>
     <row r="43">
@@ -2044,7 +2044,7 @@
         <v>0.01270432347233625</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>-0.06459867642109794</v>
+        <v>-0.06459867642109805</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>-0.009893827250777512</v>
@@ -2053,7 +2053,7 @@
         <v>0.003326397050326181</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>-0.06287544707624952</v>
+        <v>-0.06287544707624965</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.05457645702827968</v>
+        <v>-0.05773133651689417</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.04792149721619318</v>
+        <v>-0.04868004817084084</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.0985207467383241</v>
+        <v>-0.09239650823728926</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.04081237082964422</v>
+        <v>-0.03933469451509083</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.01206501663190275</v>
+        <v>-0.01143676690296929</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.09081941943755865</v>
+        <v>-0.09424946297683826</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.03501683002415955</v>
+        <v>-0.03378538853366583</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.01889690650054688</v>
+        <v>-0.0193636443203473</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.08562644014211578</v>
+        <v>-0.08634977401895261</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.03215249126086032</v>
+        <v>0.03414059384509817</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.03657095650494134</v>
+        <v>0.03378473798081638</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.01336618564790475</v>
+        <v>-0.01138848848043892</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.01934797219516732</v>
+        <v>0.02354220589817859</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.03778930046344351</v>
+        <v>0.04080237569055401</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>-0.03480172672527798</v>
+        <v>-0.03177992020596692</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.01565889756183643</v>
+        <v>0.01620134613869176</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.02506719953421428</v>
+        <v>0.02935280559749526</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>-0.03828894690951804</v>
+        <v>-0.03795386604786168</v>
       </c>
     </row>
     <row r="46">
@@ -2153,7 +2153,7 @@
         <v>-0.2570480860348279</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>-5.348403407633429</v>
+        <v>-5.348403407633418</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>0.1389116881054586</v>
@@ -2162,7 +2162,7 @@
         <v>-0.6793396103935478</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>-5.516518155397243</v>
+        <v>-5.516518155397232</v>
       </c>
     </row>
     <row r="47">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-0.8008806710540323</v>
+        <v>-0.8777579692650469</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-2.425063444949692</v>
+        <v>-2.473823501929903</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-7.125856926696088</v>
+        <v>-7.338205720694805</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-1.348482608990671</v>
+        <v>-1.3145894106956</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-1.436679178486752</v>
+        <v>-1.377661603959095</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-6.550821289281293</v>
+        <v>-6.645398714599176</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-0.6886698254830702</v>
+        <v>-0.7897719718303472</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-1.511046012927658</v>
+        <v>-1.608458117525655</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-6.437611215938264</v>
+        <v>-6.529209347369144</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>1.741688521863797</v>
+        <v>1.6167411082663</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>0.3169762872076389</v>
+        <v>0.1821427599747199</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-3.958961073531075</v>
+        <v>-4.127463334490447</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>1.036687796437539</v>
+        <v>0.8991202384811778</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>0.7685840148859573</v>
+        <v>0.9069186262292217</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>-4.057370541727059</v>
+        <v>-4.260559543107095</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>1.009428382259012</v>
+        <v>0.9643179050728825</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>0.2045675885852831</v>
+        <v>0.2732589604073748</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>-4.437625400038972</v>
+        <v>-4.51927237584828</v>
       </c>
     </row>
     <row r="49">
@@ -2258,7 +2258,7 @@
         <v>-0.002725494486364341</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>-0.05670940493360489</v>
+        <v>-0.05670940493360477</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>0.001483958678603727</v>
@@ -2267,7 +2267,7 @@
         <v>-0.00725721445266322</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>-0.058931578069672</v>
+        <v>-0.05893157806967187</v>
       </c>
     </row>
     <row r="50">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.008557341710641033</v>
+        <v>-0.009430257055686441</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.02591885726705101</v>
+        <v>-0.02657480058374716</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.0761834072406858</v>
+        <v>-0.07872889638193849</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.01414801807412093</v>
+        <v>-0.01380926316048523</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.01506078770230115</v>
+        <v>-0.01451072934678201</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.06893809929455874</v>
+        <v>-0.07000286285728249</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.007326288278198523</v>
+        <v>-0.008405490559886502</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.01607362043368663</v>
+        <v>-0.0171161223112295</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.0686102306616322</v>
+        <v>-0.06958013167518029</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.01892472699052996</v>
+        <v>0.01760321654681694</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.003430723317060569</v>
+        <v>0.001963074490558215</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.04314786780089001</v>
+        <v>-0.04476238857726738</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.01106562879680665</v>
+        <v>0.009580149163687483</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.008203084495149305</v>
+        <v>0.009647999619817042</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>-0.04333664791670682</v>
+        <v>-0.04536439920487161</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.01080996882471485</v>
+        <v>0.0103191325994039</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.002229811744872894</v>
+        <v>0.002929293771390582</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>-0.04760123380367813</v>
+        <v>-0.04852152208005363</v>
       </c>
     </row>
     <row r="52">
